--- a/image/composition.xlsx
+++ b/image/composition.xlsx
@@ -1357,46 +1357,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.28125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.46875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.25" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="70.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.8046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="72.17578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/composition.xlsx
+++ b/image/composition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -180,7 +180,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -622,10 +622,6 @@
   </si>
   <si>
     <t>Composition.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Human Readable name/title</t>
@@ -1357,46 +1353,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.46875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.8046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.25" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="70.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3494,16 +3490,16 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3571,13 +3567,13 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3585,7 +3581,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3611,13 +3607,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3646,52 +3642,52 @@
         <v>123</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3699,7 +3695,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3722,19 +3718,19 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3783,7 +3779,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3795,19 +3791,19 @@
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3815,7 +3811,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3838,13 +3834,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3895,7 +3891,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3927,7 +3923,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3956,7 +3952,7 @@
         <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>101</v>
@@ -4009,7 +4005,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4041,11 +4037,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4067,10 +4063,10 @@
         <v>98</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>101</v>
@@ -4125,7 +4121,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4157,7 +4153,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4183,14 +4179,14 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4218,49 +4214,49 @@
         <v>123</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4271,7 +4267,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4297,14 +4293,14 @@
         <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4353,7 +4349,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4371,10 +4367,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4385,7 +4381,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4408,17 +4404,17 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4467,7 +4463,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4485,21 +4481,21 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4522,19 +4518,19 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4583,7 +4579,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4601,13 +4597,13 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4615,7 +4611,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4638,16 +4634,16 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4697,7 +4693,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4709,19 +4705,19 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4729,7 +4725,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4752,13 +4748,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4809,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4841,7 +4837,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4870,7 +4866,7 @@
         <v>99</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>101</v>
@@ -4923,7 +4919,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4955,11 +4951,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4981,10 +4977,10 @@
         <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>101</v>
@@ -5039,7 +5035,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5071,7 +5067,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5097,13 +5093,13 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5132,52 +5128,52 @@
         <v>123</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5185,7 +5181,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5208,13 +5204,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5265,7 +5261,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>53</v>
@@ -5283,13 +5279,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5297,7 +5293,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5320,19 +5316,19 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5381,7 +5377,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5393,19 +5389,19 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5413,7 +5409,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5436,13 +5432,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5493,7 +5489,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5525,7 +5521,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5554,7 +5550,7 @@
         <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>101</v>
@@ -5607,7 +5603,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5639,11 +5635,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5665,10 +5661,10 @@
         <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>101</v>
@@ -5723,7 +5719,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5755,7 +5751,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5781,13 +5777,13 @@
         <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5816,11 +5812,11 @@
         <v>149</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5837,7 +5833,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5861,7 +5857,7 @@
         <v>141</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5869,7 +5865,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5892,13 +5888,13 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5949,7 +5945,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5973,7 +5969,7 @@
         <v>183</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -5981,7 +5977,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6007,10 +6003,10 @@
         <v>156</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6061,7 +6057,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6079,7 +6075,7 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>128</v>
@@ -6093,7 +6089,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6116,13 +6112,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6173,7 +6169,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6185,16 +6181,16 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6205,7 +6201,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6228,13 +6224,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6285,7 +6281,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6317,7 +6313,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6346,7 +6342,7 @@
         <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>101</v>
@@ -6399,7 +6395,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6431,11 +6427,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6457,10 +6453,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>101</v>
@@ -6515,7 +6511,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6547,11 +6543,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6570,19 +6566,19 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -6631,7 +6627,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6649,10 +6645,10 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6663,7 +6659,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6689,16 +6685,16 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6726,11 +6722,11 @@
         <v>149</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
       </c>
@@ -6747,7 +6743,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6779,7 +6775,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6805,10 +6801,10 @@
         <v>187</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -6861,7 +6857,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6893,7 +6889,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6919,13 +6915,13 @@
         <v>156</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6975,7 +6971,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6996,7 +6992,7 @@
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7007,7 +7003,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7033,13 +7029,13 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7089,7 +7085,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7098,19 +7094,19 @@
         <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AL50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7121,7 +7117,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7147,16 +7143,16 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7184,46 +7180,46 @@
         <v>123</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>128</v>
@@ -7237,7 +7233,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7263,16 +7259,16 @@
         <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7300,46 +7296,46 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>128</v>
@@ -7353,7 +7349,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7379,13 +7375,13 @@
         <v>156</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7435,7 +7431,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7444,19 +7440,19 @@
         <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7467,7 +7463,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7493,16 +7489,16 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7530,46 +7526,46 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>128</v>
@@ -7583,7 +7579,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7609,13 +7605,13 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7665,7 +7661,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7674,7 +7670,7 @@
         <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>41</v>
@@ -7683,10 +7679,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
